--- a/Django_Objects.xlsx
+++ b/Django_Objects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Rovinj</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -935,19 +935,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5201</v>
+        <v>562</v>
       </c>
       <c r="E17" t="n">
-        <v>3794</v>
+        <v>325</v>
       </c>
       <c r="F17" t="n">
-        <v>1999</v>
+        <v>4275</v>
       </c>
       <c r="G17" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>2020</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18">
@@ -956,7 +956,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rovinj</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -965,19 +965,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>562</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="F18" t="n">
-        <v>4275</v>
+        <v>1799</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H18" t="n">
-        <v>1900</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="19">
@@ -986,7 +986,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varazdin</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>5151</v>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>3732</v>
       </c>
       <c r="F19" t="n">
-        <v>1799</v>
+        <v>2002</v>
       </c>
       <c r="G19" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H19" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="20">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Rovinj</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5151</v>
+        <v>565</v>
       </c>
       <c r="E20" t="n">
-        <v>3732</v>
+        <v>322</v>
       </c>
       <c r="F20" t="n">
-        <v>2002</v>
+        <v>4276</v>
       </c>
       <c r="G20" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" t="n">
-        <v>2020</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="21">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rovinj</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="E21" t="n">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="F21" t="n">
-        <v>4276</v>
+        <v>3678</v>
       </c>
       <c r="G21" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H21" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1085,19 +1085,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>3678</v>
+        <v>1816</v>
       </c>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="n">
-        <v>2000</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="23">
@@ -1106,28 +1106,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varazdin</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>5127</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>3666</v>
       </c>
       <c r="F23" t="n">
-        <v>1816</v>
+        <v>2008</v>
       </c>
       <c r="G23" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H23" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="24">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1145,19 +1145,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5127</v>
+        <v>616</v>
       </c>
       <c r="E24" t="n">
-        <v>3666</v>
+        <v>532</v>
       </c>
       <c r="F24" t="n">
-        <v>2008</v>
+        <v>3684</v>
       </c>
       <c r="G24" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>616</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>532</v>
+        <v>56</v>
       </c>
       <c r="F25" t="n">
-        <v>3684</v>
+        <v>1876</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="n">
-        <v>2000</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="26">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Varazdin</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>5915</v>
       </c>
       <c r="E26" t="n">
-        <v>56</v>
+        <v>3940</v>
       </c>
       <c r="F26" t="n">
-        <v>1876</v>
+        <v>2681</v>
       </c>
       <c r="G26" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H26" t="n">
         <v>2022</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Rovinj</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1235,19 +1235,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5915</v>
+        <v>427</v>
       </c>
       <c r="E27" t="n">
-        <v>3940</v>
+        <v>234</v>
       </c>
       <c r="F27" t="n">
-        <v>2681</v>
+        <v>4393</v>
       </c>
       <c r="G27" t="n">
         <v>92</v>
       </c>
       <c r="H27" t="n">
-        <v>2022</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="28">
@@ -1256,28 +1256,298 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Varazdin</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>52</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1773</v>
+      </c>
+      <c r="G28" t="n">
+        <v>79</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>608</v>
+      </c>
+      <c r="E29" t="n">
+        <v>524</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3696</v>
+      </c>
+      <c r="G29" t="n">
+        <v>86</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Rovinj</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>427</v>
-      </c>
-      <c r="E28" t="n">
-        <v>234</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4393</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>571</v>
+      </c>
+      <c r="E30" t="n">
+        <v>319</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4315</v>
+      </c>
+      <c r="G30" t="n">
+        <v>94</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5054</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3569</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G31" t="n">
         <v>92</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5977</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3930</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2688</v>
+      </c>
+      <c r="G32" t="n">
+        <v>92</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Varazdin</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>57</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2167</v>
+      </c>
+      <c r="G33" t="n">
+        <v>89</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rovinj</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>570</v>
+      </c>
+      <c r="E34" t="n">
+        <v>310</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4351</v>
+      </c>
+      <c r="G34" t="n">
+        <v>94</v>
+      </c>
+      <c r="H34" t="n">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Varazdin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>53</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2099</v>
+      </c>
+      <c r="G35" t="n">
+        <v>84</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>582</v>
+      </c>
+      <c r="E36" t="n">
+        <v>498</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3684</v>
+      </c>
+      <c r="G36" t="n">
+        <v>86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rovinj</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>555</v>
+      </c>
+      <c r="E37" t="n">
+        <v>299</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4370</v>
+      </c>
+      <c r="G37" t="n">
+        <v>95</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
